--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2234.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2234.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.2959658270704</v>
+        <v>1.041303753852844</v>
       </c>
       <c r="B1">
-        <v>2.904544391374119</v>
+        <v>2.301737785339355</v>
       </c>
       <c r="C1">
-        <v>8.586918999572543</v>
+        <v>6.771317481994629</v>
       </c>
       <c r="D1">
-        <v>1.988967767764462</v>
+        <v>2.305720329284668</v>
       </c>
       <c r="E1">
-        <v>1.091660862805643</v>
+        <v>1.312609076499939</v>
       </c>
     </row>
   </sheetData>
